--- a/biology/Zoologie/Colcarteria_carrai/Colcarteria_carrai.xlsx
+++ b/biology/Zoologie/Colcarteria_carrai/Colcarteria_carrai.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Colcarteria carrai est une espèce d'araignées aranéomorphes de la famille des Desidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Colcarteria carrai est une espèce d'araignées aranéomorphes de la famille des Desidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la forêt d'État de Carrai.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la forêt d'État de Carrai.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 1,43 mm de long sur 1,13 mm de large, son abdomen mesure 1,5 mm de long sur 1,0 mm de large. La carapace de la femelle paratype mesure 1,98 mm de long sur 1,39 mm de large, son abdomen mesure 2,3 mm de long sur 1,7 mm de large[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 1,43 mm de long sur 1,13 mm de large, son abdomen mesure 1,5 mm de long sur 1,0 mm de large. La carapace de la femelle paratype mesure 1,98 mm de long sur 1,39 mm de large, son abdomen mesure 2,3 mm de long sur 1,7 mm de large.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, la forêt d'État de Carrai.
 </t>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 1992 : New desid spiders (Araneae: Desidae) from New Caledonia and eastern Australia. Records of the Australian Museum, vol. 44, p. 253-262 (texte intégral).</t>
         </is>
